--- a/source/guides/hrsa/uds-plus/CodeSystem-udsplus-agriculture-worker-status-codes.xlsx
+++ b/source/guides/hrsa/uds-plus/CodeSystem-udsplus-agriculture-worker-status-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
